--- a/Learning-Overview.xlsx
+++ b/Learning-Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\Academic-Work-JavaScript-Program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\AW-program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3484DD94-73ED-470B-933C-3AB2F0EDEF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEF5A3-EA73-462C-9C18-343907321BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Module-1-JS-Programming-Fundamentals-and-Problem-Solving-Using-Code</t>
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>1-1-2-Iteration</t>
   </si>
   <si>
     <t>1-1-3-Functions</t>
@@ -114,12 +111,58 @@
   <si>
     <t>npm</t>
   </si>
+  <si>
+    <t>Print all number from 0 to 50</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1-2-Iteration </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>While &amp; For loop</t>
+    </r>
+  </si>
+  <si>
+    <t>Print every other number from 0 to 50</t>
+  </si>
+  <si>
+    <t>Print numbers from 20 to -30 backwards</t>
+  </si>
+  <si>
+    <t>Print numbers from 0 to 100 that are divisible by 7</t>
+  </si>
+  <si>
+    <t>Print numbers from 0 to 20, skip 13, and 17</t>
+  </si>
+  <si>
+    <t>Print numbers from 0 to 20, skip odd numbers</t>
+  </si>
+  <si>
+    <t>Print numbers from 0 to 20, skip even numbers</t>
+  </si>
+  <si>
+    <t>Print pattern 1</t>
+  </si>
+  <si>
+    <t>Print pattern 2</t>
+  </si>
+  <si>
+    <t>Multiplication table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +215,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +265,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -232,14 +295,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,16 +317,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20 % – uthevingsfarge 6" xfId="3" builtinId="50"/>
+    <cellStyle name="Dårlig" xfId="5" builtinId="27"/>
     <cellStyle name="God" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Uthevingsfarge5" xfId="1" builtinId="45"/>
@@ -583,50 +649,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -715,25 +783,25 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -752,18 +820,38 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>34</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -777,7 +865,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -802,7 +890,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -827,7 +915,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -852,7 +940,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -877,7 +965,7 @@
     </row>
     <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -902,7 +990,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -927,7 +1015,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -952,7 +1040,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -977,7 +1065,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1002,7 +1090,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1027,7 +1115,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1052,7 +1140,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1077,7 +1165,7 @@
     </row>
     <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1102,7 +1190,7 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Learning-Overview.xlsx
+++ b/Learning-Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\AW-program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DEF5A3-EA73-462C-9C18-343907321BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB0BF0-72AC-44C1-A1BA-230DA6FC57CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Module-1-JS-Programming-Fundamentals-and-Problem-Solving-Using-Code</t>
   </si>
@@ -109,9 +109,6 @@
     </r>
   </si>
   <si>
-    <t>npm</t>
-  </si>
-  <si>
     <t>Print all number from 0 to 50</t>
   </si>
   <si>
@@ -162,7 +159,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +213,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
@@ -231,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,11 +255,6 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -295,15 +280,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,11 +308,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="20 % – uthevingsfarge 6" xfId="3" builtinId="50"/>
-    <cellStyle name="Dårlig" xfId="5" builtinId="27"/>
     <cellStyle name="God" xfId="4" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Uthevingsfarge5" xfId="1" builtinId="45"/>
@@ -647,23 +629,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="39.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6328125" customWidth="1"/>
+    <col min="5" max="5" width="42.90625" customWidth="1"/>
+    <col min="6" max="6" width="36.90625" customWidth="1"/>
+    <col min="7" max="8" width="39.54296875" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.6">
@@ -820,37 +802,37 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1188,11 +1170,6 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="H26" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>

--- a/Learning-Overview.xlsx
+++ b/Learning-Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\AW-program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB0BF0-72AC-44C1-A1BA-230DA6FC57CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F497F5-E294-4948-88F0-33812FF5D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Module-1-JS-Programming-Fundamentals-and-Problem-Solving-Using-Code</t>
   </si>
@@ -154,12 +154,36 @@
   <si>
     <t>Multiplication table</t>
   </si>
+  <si>
+    <t>Print all the numbers from n to m</t>
+  </si>
+  <si>
+    <t>Print every third number from n to m</t>
+  </si>
+  <si>
+    <t>Prints every x number between n and m</t>
+  </si>
+  <si>
+    <t>Prints every x number between m and n backwards</t>
+  </si>
+  <si>
+    <t>Prints every x number between m and n divisible by x</t>
+  </si>
+  <si>
+    <t>Prints the following patterns 1</t>
+  </si>
+  <si>
+    <t>Prints the following patterns 2</t>
+  </si>
+  <si>
+    <t>Prints the following patterns 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
@@ -220,8 +237,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +300,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -280,19 +330,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -301,17 +351,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="20 % – uthevingsfarge 6" xfId="3" builtinId="50"/>
-    <cellStyle name="God" xfId="4" builtinId="26"/>
+    <cellStyle name="Dårlig" xfId="5" builtinId="27"/>
+    <cellStyle name="God" xfId="4" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Uthevingsfarge5" xfId="1" builtinId="45"/>
     <cellStyle name="Uthevingsfarge6" xfId="2" builtinId="49"/>
@@ -631,52 +689,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="72.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="32.81640625" customWidth="1"/>
-    <col min="4" max="4" width="34.6328125" customWidth="1"/>
-    <col min="5" max="5" width="42.90625" customWidth="1"/>
-    <col min="6" max="6" width="36.90625" customWidth="1"/>
-    <col min="7" max="8" width="39.54296875" customWidth="1"/>
-    <col min="9" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -739,443 +799,459 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
     </row>
     <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
     </row>
     <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:U91">
+  <conditionalFormatting sqref="B4:U5 B7:U91 B6:C6 G6:U6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Confident"</formula>
     </cfRule>

--- a/Learning-Overview.xlsx
+++ b/Learning-Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\AW-program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F497F5-E294-4948-88F0-33812FF5D4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ECB526-BFF4-4E91-878D-53D7C2B9458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Module-1-JS-Programming-Fundamentals-and-Problem-Solving-Using-Code</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>Prints the following patterns 3</t>
+  </si>
+  <si>
+    <t>Produces multiplication tables.</t>
+  </si>
+  <si>
+    <t>Palindrome</t>
   </si>
 </sst>
 </file>
@@ -338,7 +344,7 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,19 +358,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % – uthevingsfarge 6" xfId="3" builtinId="50"/>
@@ -689,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,39 +709,39 @@
     <col min="7" max="7" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26" x14ac:dyDescent="0.6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:21" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -827,83 +832,83 @@
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
@@ -915,13 +920,13 @@
       <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -933,325 +938,329 @@
       <c r="I6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
+      <c r="J6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:U5 B7:U91 B6:C6 G6:U6">
+  <conditionalFormatting sqref="B4:U5 B7:U91 B6:C6 G6:I6 K6:U6">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Confident"</formula>
     </cfRule>

--- a/Learning-Overview.xlsx
+++ b/Learning-Overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\AW-program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ECB526-BFF4-4E91-878D-53D7C2B9458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0EAEC-E470-4803-87D1-09620E6CC861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,7 +695,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,10 +959,10 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -984,19 +984,19 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
@@ -1009,10 +1009,10 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>

--- a/Learning-Overview.xlsx
+++ b/Learning-Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ademir Alijagic\Documents\GitHub\AW-program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A0EAEC-E470-4803-87D1-09620E6CC861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74647E26-5EA4-4C44-9E17-5EF511C270C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4910" yWindow="-70" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Module-1-JS-Programming-Fundamentals-and-Problem-Solving-Using-Code</t>
   </si>
@@ -183,6 +183,39 @@
   </si>
   <si>
     <t>Palindrome</t>
+  </si>
+  <si>
+    <t>3-1-1-Basic Syntax</t>
+  </si>
+  <si>
+    <t>3-1-2-Types and Literals</t>
+  </si>
+  <si>
+    <t>3-1-3-Truth and Equality</t>
+  </si>
+  <si>
+    <t>3-2-1-Objects</t>
+  </si>
+  <si>
+    <t>3-2-2-Classes</t>
+  </si>
+  <si>
+    <t>3-2-3-Functions</t>
+  </si>
+  <si>
+    <t>3-3-1-Closures</t>
+  </si>
+  <si>
+    <t>3-3-2-Composition</t>
+  </si>
+  <si>
+    <t>3-3-3-Array Methods</t>
+  </si>
+  <si>
+    <t>3-4-1-Array Reducing</t>
+  </si>
+  <si>
+    <t>3-4-2-This</t>
   </si>
 </sst>
 </file>
@@ -388,7 +421,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -412,7 +445,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -692,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1059,18 +1092,18 @@
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1084,18 +1117,18 @@
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1109,18 +1142,18 @@
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1134,18 +1167,18 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1159,18 +1192,18 @@
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -1184,18 +1217,18 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -1209,18 +1242,18 @@
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
@@ -1255,20 +1288,295 @@
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:U1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B4:U5 B7:U91 B6:C6 G6:I6 K6:U6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Confident"</formula>
+  <conditionalFormatting sqref="B4:U5 B6:C6 G6:I6 K6:U6 B7:U90">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Not Started"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Learning"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Not Started"</formula>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Confident"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
